--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788754</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788754</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2178.350667529424</v>
+        <v>336861.6724461669</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2178.350667529424</v>
+        <v>336861.6724461669</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342510553.647513</v>
+        <v>54975493.81123465</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11241.33048170996</v>
+        <v>1234674.656625625</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21636.49965966749</v>
+        <v>2336629.566916645</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32031.66883762501</v>
+        <v>3438584.477207667</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42823.99178958108</v>
+        <v>4555762.766892627</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53539.81534759776</v>
+        <v>5657717.677183649</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64255.63890561443</v>
+        <v>6759672.587474668</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74971.46246363109</v>
+        <v>7861627.497765685</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85687.28602164776</v>
+        <v>8963582.408056701</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96403.10957966444</v>
+        <v>10065537.31834772</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107118.9331376811</v>
+        <v>11167492.22863873</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117834.7566956978</v>
+        <v>12269447.13892976</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128183.4234188037</v>
+        <v>13356178.66982685</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>138608.589535849</v>
+        <v>14458133.58011787</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>149433.1020101135</v>
+        <v>15501137.69773082</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160257.614484378</v>
+        <v>16544141.81534377</v>
       </c>
     </row>
   </sheetData>
